--- a/src/main/resources/template/excel/export/DeliverGoodsSkuCodeReport.xlsx
+++ b/src/main/resources/template/excel/export/DeliverGoodsSkuCodeReport.xlsx
@@ -27,9 +27,6 @@
     <t>货号</t>
   </si>
   <si>
-    <t>数量</t>
-  </si>
-  <si>
     <t>单价</t>
   </si>
   <si>
@@ -44,13 +41,17 @@
   <si>
     <t>是</t>
   </si>
+  <si>
+    <t>箱数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -133,17 +134,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -681,7 +682,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,7 +717,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,7 +929,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -944,16 +945,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -970,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,7 +988,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1004,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/DeliverGoodsSkuCodeReport.xlsx
+++ b/src/main/resources/template/excel/export/DeliverGoodsSkuCodeReport.xlsx
@@ -27,6 +27,9 @@
     <t>货号</t>
   </si>
   <si>
+    <t>数量</t>
+  </si>
+  <si>
     <t>单价</t>
   </si>
   <si>
@@ -41,17 +44,13 @@
   <si>
     <t>是</t>
   </si>
-  <si>
-    <t>箱数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -134,17 +133,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -682,7 +681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -717,7 +716,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,7 +928,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -945,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -971,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -988,7 +987,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1005,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/DeliverGoodsSkuCodeReport.xlsx
+++ b/src/main/resources/template/excel/export/DeliverGoodsSkuCodeReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,6 @@
   </si>
   <si>
     <t>箱数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -165,6 +164,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,7 +513,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>数量：</a:t>
+            <a:t>箱数：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -647,7 +714,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -929,7 +996,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1106,9 +1173,12 @@
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"否,是"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"箱数,数量"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
